--- a/results/results_generated_conf_1.xlsx
+++ b/results/results_generated_conf_1.xlsx
@@ -251,6 +251,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1202,11 +1203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353384384"/>
-        <c:axId val="353383840"/>
+        <c:axId val="-35561344"/>
+        <c:axId val="-35554272"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="353383840"/>
+        <c:axId val="-35554272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,12 +1234,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353384384"/>
+        <c:crossAx val="-35561344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="353384384"/>
+        <c:axId val="-35561344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353383840"/>
+        <c:crossAx val="-35554272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,11 +2180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="749112640"/>
-        <c:axId val="749109920"/>
+        <c:axId val="-35559712"/>
+        <c:axId val="-35560800"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="749109920"/>
+        <c:axId val="-35560800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2211,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="749112640"/>
+        <c:crossAx val="-35559712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="749112640"/>
+        <c:axId val="-35559712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="749109920"/>
+        <c:crossAx val="-35560800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2293,7 +2294,10 @@
           </c:tx>
           <c:spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -2306,76 +2310,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.22857142857142859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.32142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.14285714285714279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14285714285714279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5714285714285712E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.5714285714285715E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.1785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.1071428571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8571428571428571E-2</c:v>
+                  <c:v>0.1142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,73 +2407,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0.22857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1785714285714286</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37142857142857139</c:v>
+                  <c:v>0.22857142857142859</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25</c:v>
+                  <c:v>0.39285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14285714285714279</c:v>
+                  <c:v>0.39285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.39285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35714285714285721</c:v>
+                  <c:v>0.42857142857142849</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14285714285714279</c:v>
+                  <c:v>0.32142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22857142857142859</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>0.14285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2487,7 +2491,7 @@
           </c:tx>
           <c:spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -2518,25 +2522,25 @@
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8571428571428571E-2</c:v>
+                  <c:v>5.7142857142857141E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.1071428571428571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>3.5714285714285712E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.5714285714285715E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>3.5714285714285712E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5714285714285715E-2</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>3.5714285714285712E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8.5714285714285715E-2</c:v>
@@ -2545,31 +2549,31 @@
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.1071428571428571</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>3.5714285714285712E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>8.5714285714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5.7142857142857141E-2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>0.1071428571428571</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.5714285714285715E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5714285714285712E-2</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1142857142857143</c:v>
+                  <c:v>8.5714285714285715E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,11 +2589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="749109376"/>
-        <c:axId val="749110464"/>
+        <c:axId val="-35558080"/>
+        <c:axId val="-35551008"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="749110464"/>
+        <c:axId val="-35551008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,12 +2604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="749109376"/>
+        <c:crossAx val="-35558080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="749109376"/>
+        <c:axId val="-35558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="749110464"/>
+        <c:crossAx val="-35551008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2631,10 +2635,22 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 9" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="32767" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3007,7 +3023,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -36042,11 +36058,11 @@
       </c>
       <c r="AE2">
         <f ca="1">INDIRECT("'" &amp; AD2 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="AF2">
         <f ca="1">INDIRECT("'" &amp; AD2 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="AG2">
         <f ca="1">INDIRECT("'" &amp; AD2 &amp; "'!D" &amp; (charts!V1 + 1))</f>
@@ -36156,11 +36172,11 @@
       </c>
       <c r="AE3">
         <f ca="1">INDIRECT("'" &amp; AD3 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="AF3">
         <f ca="1">INDIRECT("'" &amp; AD3 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.1785714285714286</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f ca="1">INDIRECT("'" &amp; AD3 &amp; "'!D" &amp; (charts!V1 + 1))</f>
@@ -36270,11 +36286,11 @@
       </c>
       <c r="AE4">
         <f ca="1">INDIRECT("'" &amp; AD4 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.32142857142857151</v>
       </c>
       <c r="AF4">
         <f ca="1">INDIRECT("'" &amp; AD4 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="AG4">
         <f ca="1">INDIRECT("'" &amp; AD4 &amp; "'!D" &amp; (charts!V1 + 1))</f>
@@ -36384,7 +36400,7 @@
       </c>
       <c r="AE5">
         <f ca="1">INDIRECT("'" &amp; AD5 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="AF5">
         <f ca="1">INDIRECT("'" &amp; AD5 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -36498,11 +36514,11 @@
       </c>
       <c r="AE6">
         <f ca="1">INDIRECT("'" &amp; AD6 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AF6">
         <f ca="1">INDIRECT("'" &amp; AD6 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>3.5714285714285712E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AG6">
         <f ca="1">INDIRECT("'" &amp; AD6 &amp; "'!D" &amp; (charts!V1 + 1))</f>
@@ -36612,7 +36628,7 @@
       </c>
       <c r="AE7">
         <f ca="1">INDIRECT("'" &amp; AD7 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="AF7">
         <f ca="1">INDIRECT("'" &amp; AD7 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -36726,15 +36742,15 @@
       </c>
       <c r="AE8">
         <f ca="1">INDIRECT("'" &amp; AD8 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF8">
         <f ca="1">INDIRECT("'" &amp; AD8 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.37142857142857139</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="AG8">
         <f ca="1">INDIRECT("'" &amp; AD8 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>2.8571428571428571E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -36840,7 +36856,7 @@
       </c>
       <c r="AE9">
         <f ca="1">INDIRECT("'" &amp; AD9 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="AF9">
         <f ca="1">INDIRECT("'" &amp; AD9 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -36848,7 +36864,7 @@
       </c>
       <c r="AG9">
         <f ca="1">INDIRECT("'" &amp; AD9 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -36954,15 +36970,15 @@
       </c>
       <c r="AE10">
         <f ca="1">INDIRECT("'" &amp; AD10 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.32142857142857151</v>
       </c>
       <c r="AF10">
         <f ca="1">INDIRECT("'" &amp; AD10 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.25</v>
+        <v>0.39285714285714279</v>
       </c>
       <c r="AG10">
         <f ca="1">INDIRECT("'" &amp; AD10 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -37068,7 +37084,7 @@
       </c>
       <c r="AE11">
         <f ca="1">INDIRECT("'" &amp; AD11 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="AF11">
         <f ca="1">INDIRECT("'" &amp; AD11 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -37182,15 +37198,15 @@
       </c>
       <c r="AE12">
         <f ca="1">INDIRECT("'" &amp; AD12 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>3.5714285714285712E-2</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="AF12">
         <f ca="1">INDIRECT("'" &amp; AD12 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.14285714285714279</v>
+        <v>0.39285714285714279</v>
       </c>
       <c r="AG12">
         <f ca="1">INDIRECT("'" &amp; AD12 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -37296,7 +37312,7 @@
       </c>
       <c r="AE13">
         <f ca="1">INDIRECT("'" &amp; AD13 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="AF13">
         <f ca="1">INDIRECT("'" &amp; AD13 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -37304,7 +37320,7 @@
       </c>
       <c r="AG13">
         <f ca="1">INDIRECT("'" &amp; AD13 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>8.5714285714285715E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -37410,15 +37426,15 @@
       </c>
       <c r="AE14">
         <f ca="1">INDIRECT("'" &amp; AD14 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="AF14">
         <f ca="1">INDIRECT("'" &amp; AD14 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.39285714285714279</v>
       </c>
       <c r="AG14">
         <f ca="1">INDIRECT("'" &amp; AD14 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -37524,7 +37540,7 @@
       </c>
       <c r="AE15">
         <f ca="1">INDIRECT("'" &amp; AD15 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF15">
         <f ca="1">INDIRECT("'" &amp; AD15 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -37638,11 +37654,11 @@
       </c>
       <c r="AE16">
         <f ca="1">INDIRECT("'" &amp; AD16 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="AF16">
         <f ca="1">INDIRECT("'" &amp; AD16 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.35714285714285721</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="AG16">
         <f ca="1">INDIRECT("'" &amp; AD16 &amp; "'!D" &amp; (charts!V1 + 1))</f>
@@ -37752,7 +37768,7 @@
       </c>
       <c r="AE17">
         <f ca="1">INDIRECT("'" &amp; AD17 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AF17">
         <f ca="1">INDIRECT("'" &amp; AD17 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -37760,7 +37776,7 @@
       </c>
       <c r="AG17">
         <f ca="1">INDIRECT("'" &amp; AD17 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -37866,15 +37882,15 @@
       </c>
       <c r="AE18">
         <f ca="1">INDIRECT("'" &amp; AD18 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF18">
         <f ca="1">INDIRECT("'" &amp; AD18 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.14285714285714279</v>
+        <v>0.32142857142857151</v>
       </c>
       <c r="AG18">
         <f ca="1">INDIRECT("'" &amp; AD18 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -37980,7 +37996,7 @@
       </c>
       <c r="AE19">
         <f ca="1">INDIRECT("'" &amp; AD19 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="AF19">
         <f ca="1">INDIRECT("'" &amp; AD19 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -38094,15 +38110,15 @@
       </c>
       <c r="AE20">
         <f ca="1">INDIRECT("'" &amp; AD20 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="AF20">
         <f ca="1">INDIRECT("'" &amp; AD20 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AG20">
         <f ca="1">INDIRECT("'" &amp; AD20 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>5.7142857142857141E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -38208,7 +38224,7 @@
       </c>
       <c r="AE21">
         <f ca="1">INDIRECT("'" &amp; AD21 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF21">
         <f ca="1">INDIRECT("'" &amp; AD21 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -38216,7 +38232,7 @@
       </c>
       <c r="AG21">
         <f ca="1">INDIRECT("'" &amp; AD21 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>0.1071428571428571</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -38322,15 +38338,15 @@
       </c>
       <c r="AE22">
         <f ca="1">INDIRECT("'" &amp; AD22 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="AF22">
         <f ca="1">INDIRECT("'" &amp; AD22 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>0.22857142857142859</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AG22">
         <f ca="1">INDIRECT("'" &amp; AD22 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>8.5714285714285715E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -38436,7 +38452,7 @@
       </c>
       <c r="AE23">
         <f ca="1">INDIRECT("'" &amp; AD23 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="AF23">
         <f ca="1">INDIRECT("'" &amp; AD23 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -38444,7 +38460,7 @@
       </c>
       <c r="AG23">
         <f ca="1">INDIRECT("'" &amp; AD23 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -38550,15 +38566,15 @@
       </c>
       <c r="AE24">
         <f ca="1">INDIRECT("'" &amp; AD24 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="AF24">
         <f ca="1">INDIRECT("'" &amp; AD24 &amp; "'!C" &amp; (charts!V1 + 1))</f>
-        <v>3.5714285714285712E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="AG24">
         <f ca="1">INDIRECT("'" &amp; AD24 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>3.5714285714285712E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -38664,7 +38680,7 @@
       </c>
       <c r="AE25">
         <f ca="1">INDIRECT("'" &amp; AD25 &amp; "'!B" &amp; (charts!V1 + 1))</f>
-        <v>2.8571428571428571E-2</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="AF25">
         <f ca="1">INDIRECT("'" &amp; AD25 &amp; "'!C" &amp; (charts!V1 + 1))</f>
@@ -38672,7 +38688,7 @@
       </c>
       <c r="AG25">
         <f ca="1">INDIRECT("'" &amp; AD25 &amp; "'!D" &amp; (charts!V1 + 1))</f>
-        <v>0.1142857142857143</v>
+        <v>8.5714285714285715E-2</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
